--- a/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/components/bindPublicipDialog.xlsx
+++ b/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/components/bindPublicipDialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\20. 弹性网卡控制台国际化翻译校对\3. 客户确认版-更新至github\弹性网卡确认-GTCOM-haopeng1108-需更新至github\elasticNetworkMixinsXlsx_haopeng1106-R\elasticNetworkMixinsXlsx\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -317,42 +317,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Associate with EIP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please select private IP"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">EIP that is to be bound </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>IP Address</t>
     </r>
   </si>
@@ -389,30 +353,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Secondary network interface only supports association with EIP within full availability zone</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Full Availability Zone'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>No Data</t>
     </r>
   </si>
@@ -451,12 +391,32 @@
       </rPr>
       <t>OK</t>
     </r>
+  </si>
+  <si>
+    <t>Associate EIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only All-AZ EIP is supported to associate to secondary network interfaces.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All-AZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Please select the EIP </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be associated to the private IP " "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -493,8 +453,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -840,7 +803,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -855,11 +818,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -867,10 +830,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -878,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -889,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -900,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -911,18 +874,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,8 +895,8 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -944,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -955,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -966,7 +929,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,12 +940,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B12" numberStoredAsText="1"/>
   </ignoredErrors>
